--- a/Assets/Excel/ConditionDialoguePieceInfo.xlsx
+++ b/Assets/Excel/ConditionDialoguePieceInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\MStudio3DRPG\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573188BF-D318-4A12-9C24-70CCBB9F3947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5166AADE-E0ED-48A9-B82B-CB36CA59C130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6432" yWindow="2880" windowWidth="11124" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,28 +35,76 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我在哪，头好晕~~~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>试试还能不能移动，（使用鼠标右键点击地面进行移动）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>那边有个人，去问问他什么情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>first-dialogue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>targetId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>description</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue-1</t>
+  </si>
+  <si>
+    <t>dialogue-2</t>
+  </si>
+  <si>
+    <t>好刺鼻的气味……密林深处居然藏着一口正在熬制的大锅？</t>
+  </si>
+  <si>
+    <t>这味道……和那些发狂的史莱姆、甲龟身上的味道一模一样！难道这锅药水就是导致它们发狂的原因？</t>
+  </si>
+  <si>
+    <t>还有这个旋转的漩涡……它看起来深不见底，里面到底藏着什么秘密？那个幕后黑手是不是就藏在里面？</t>
+  </si>
+  <si>
+    <t>不管怎样，这肯定就是 Romen 队长要找的源头。情况紧急，我必须赶快回到村子，把这个发现告诉他！</t>
+  </si>
+  <si>
+    <t>嘶……头好痛。这是哪里？我怎么什么都记不起来了……浑身一点力气都没有。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不管怎样，不能一直躺在这里，得试着活动一下身体。（点击 鼠标右键 进行移动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周围看起来很陌生，我需要观察一下环境。（使用 W/S 上下旋转视角，Q/R 左右旋转视角，滑动 鼠标滚轮 缩放视角）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那是……村口好像站着一个守卫？也许他知道发生了什么，我得过去问问情况。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">（你走出了传送门，发现原本喧嚣的战火已经熄灭。） </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">（阳光重新洒在村庄的土地上，幸存的村民们正在清理废墟，虽然伤痕累累，但每个人的脸上都带着劫后余生的希望。） </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（你握紧了手中的剑与盾，你知道，这片土地的和平，是你和Ramon共同守护的。）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（你拿起桌上沾满灰尘的羊皮纸，借着昏暗的烛光辨认那潦草的字迹，随后面色剧变）天哪……这上面写着，哥布林不仅仅是想骚扰村庄，它们正在筹备一场‘最后的清洗，目的是彻底摧毁整个人类世界！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（你的手指停留在了一个陌生的词汇上，眉头紧锁）它们居然要去联合……‘石头巨人’？那是什么东西？我从来没听说过这种怪物……连哥布林都需要结盟才能驾驭的家伙，到底有多可怕？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（一种前所未有的危机感涌上心头，你迅速将情报塞进怀里）不管那是什么，如果让这两种怪物联手，人类就真的没救了！我必须立刻回去，把这个惊人的消息告诉 Ramon 队长！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue-3</t>
   </si>
 </sst>
 </file>
@@ -381,17 +429,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="197.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -400,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -414,10 +462,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -428,10 +476,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -442,12 +490,166 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15">
         <v>-1</v>
       </c>
     </row>

--- a/Assets/Excel/ConditionDialoguePieceInfo.xlsx
+++ b/Assets/Excel/ConditionDialoguePieceInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\MStudio3DRPG\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5166AADE-E0ED-48A9-B82B-CB36CA59C130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DF0793-A050-4508-9A0C-DE1530F39D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,18 +80,6 @@
     <t>那是……村口好像站着一个守卫？也许他知道发生了什么，我得过去问问情况。</t>
   </si>
   <si>
-    <t xml:space="preserve">（你走出了传送门，发现原本喧嚣的战火已经熄灭。） </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">（阳光重新洒在村庄的土地上，幸存的村民们正在清理废墟，虽然伤痕累累，但每个人的脸上都带着劫后余生的希望。） </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（你握紧了手中的剑与盾，你知道，这片土地的和平，是你和Ramon共同守护的。）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（你拿起桌上沾满灰尘的羊皮纸，借着昏暗的烛光辨认那潦草的字迹，随后面色剧变）天哪……这上面写着，哥布林不仅仅是想骚扰村庄，它们正在筹备一场‘最后的清洗，目的是彻底摧毁整个人类世界！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,6 +93,36 @@
   </si>
   <si>
     <t>dialogue-3</t>
+  </si>
+  <si>
+    <t>（随着一声震耳欲聋的巨响，巨大的岩石身躯轰然倒塌，化作一堆碎石。周围的哥布林看到首领倒下，尖叫着四散而逃） 终于……结束了。那个大家伙倒下了，哥布林的野心也随之粉碎了。</t>
+  </si>
+  <si>
+    <t>（你大口喘着粗气，汗水浸透了盔甲。你缓缓举起手中满是划痕的盾牌，看向天空） Ramon 队长，你看到了吗？我做到了。无论是哥布林还是石头人，都别想再踏入我们的世界半步。</t>
+  </si>
+  <si>
+    <t>（金色的传送门开始闪烁，似乎因为失去了魔力维持即将关闭） 传送门快要消失了，我得赶紧回去。</t>
+  </si>
+  <si>
+    <t>dialogue-4</t>
+  </si>
+  <si>
+    <t>（你静静地伫立在这座简陋的衣冠冢前。Ramon 的断剑和那面你带回来的盾牌交叉插在泥土里，正对着村口的方向——那是他生前哪怕只有一口气也要死守的地方。）</t>
+  </si>
+  <si>
+    <t>这里是你以前最爱站的地方。以前觉得你总是站在这里大吼大叫很烦人，现在这里安静下来了，反而觉得心里空落落的。</t>
+  </si>
+  <si>
+    <t>（微风吹过，卷起几片落叶。你仿佛又看到了那个总是皱着眉头的守卫队长。）</t>
+  </si>
+  <si>
+    <t>回头想想，如果那天你没有逼着那个连路都走不稳的我拿起武器，现在的我大概早就变成荒野里的一具白骨了吧。是你用那该死的严厉，硬生生把一个懦夫拽成了战士。</t>
+  </si>
+  <si>
+    <t>（你伸出手，轻轻抚摸那粗糙的普通剑柄，就像在和一位老友握手告别。你下意识地紧了紧背后的背带，感受着 Ramon 那面满是伤痕的盾牌传来的温度。）</t>
+  </si>
+  <si>
+    <t>任务完成了，老队长。无论是哥布林还是别的什么，都不会再来打扰这片土地了。你的班，我接过了。安心睡吧。</t>
   </si>
 </sst>
 </file>
@@ -147,8 +165,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -429,17 +450,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="197.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="195.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -577,7 +598,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -591,7 +612,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -605,7 +626,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D12">
         <v>-1</v>
@@ -616,10 +637,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -630,10 +651,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -644,12 +665,96 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>17</v>
       </c>
-      <c r="D15">
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21">
         <v>-1</v>
       </c>
     </row>
